--- a/BA_04/src/ex_02_DVR_dict.xlsx
+++ b/BA_04/src/ex_02_DVR_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Business-and-system-analyses\BA_04\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F44C298-7761-4339-9077-75FF0EDB38D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E211D2F-BECE-4369-89C3-984885F86AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="18948" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -66,27 +66,6 @@
     <t>Обязательность</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>STOR</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>это посредник между продавцом и покупателем.</t>
   </si>
   <si>
@@ -116,6 +95,27 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Shops</t>
+  </si>
+  <si>
+    <t>Pointers</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Courier</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Statuses</t>
+  </si>
+  <si>
+    <t>Clients</t>
   </si>
 </sst>
 </file>
@@ -463,14 +463,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -507,16 +507,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -547,16 +547,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -567,16 +567,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -587,16 +587,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -607,16 +607,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,16 +627,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
